--- a/planilhas/07-2025/3-07-2025.xlsx
+++ b/planilhas/07-2025/3-07-2025.xlsx
@@ -24,7 +24,7 @@
     <numFmt numFmtId="168" formatCode="dddd"/>
     <numFmt numFmtId="169" formatCode="#,##0;;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -159,8 +159,12 @@
       <color indexed="81"/>
       <sz val="9"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -203,6 +207,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCCCC"/>
+        <bgColor rgb="00FFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="50">
     <border>
@@ -828,7 +838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -1215,6 +1225,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="169" fontId="11" fillId="2" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="8" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3128,18 +3142,14 @@
         <f>WEEKDAY(B15)</f>
         <v/>
       </c>
-      <c r="D15" s="24" t="n">
-        <v>700</v>
-      </c>
-      <c r="E15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="D15" s="131" t="inlineStr">
+        <is>
+          <t>Falta sem Justificativa</t>
+        </is>
+      </c>
+      <c r="E15" s="117" t="n"/>
+      <c r="F15" s="117" t="n"/>
+      <c r="G15" s="118" t="n"/>
       <c r="I15" s="124">
         <f>IF(ISERROR(IF(OR($Z15="",$Z15=0),0,(IF(TEXT($Z15,"[hh]:mm:ss")&lt;TEXT($Y15,"[hh]:mm:ss"),(1-$Y15+$Z15),$Z15-$Y15))+IF(OR($AB15="",$AB15=0),0,(IF(TEXT($AB15,"[hh]:mm:ss")&lt;TEXT($AA15,"[hh]:mm:ss"),(1-$AA15+$AB15),$AB15-$AA15))))),0,IF(OR($Z15="",$Z15=0),0,(IF(TEXT($Z15,"[hh]:mm:ss")&lt;TEXT($Y15,"[hh]:mm:ss"),(1-$Y15+$Z15),$Z15-$Y15))+IF(OR($AB15="",$AB15=0),0,(IF(TEXT($AB15,"[hh]:mm:ss")&lt;TEXT($AA15,"[hh]:mm:ss"),(1-$AA15+$AB15),$AB15-$AA15)))))</f>
         <v/>
@@ -4706,12 +4716,13 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="1" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="1" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="AD15"/>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Y4:AB4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="I4:O4"/>
+    <mergeCell ref="D15:G15"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="B4:C4"/>
